--- a/2021/Day01.xlsx
+++ b/2021/Day01.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nfalero/Documents/Financial Modelling World Cup/Advent-of-Code-Excel/2021/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5E28654-E3CC-3E4D-80E9-A61171F4583C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6AA3D45-2037-874C-9587-75F2ADD490C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="17960" yWindow="760" windowWidth="16600" windowHeight="21580" activeTab="1" xr2:uid="{0286F73B-7DEB-7447-A9DB-423A598096A0}"/>
   </bookViews>
@@ -479,13 +479,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F93CD7B9-7C10-6A4D-9C6E-4DED8BCB301F}">
   <dimension ref="A1:D2000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="156" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="15.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="17" x14ac:dyDescent="0.25">
